--- a/data/outputs/management/67.xlsx
+++ b/data/outputs/management/67.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ22"/>
+  <dimension ref="A1:BR22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +934,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4459717</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1146,6 +1156,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4511795</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1359,6 +1374,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1576,6 +1592,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4240225</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1789,6 +1810,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>3893350</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2002,6 +2028,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>3927568</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2203,6 +2234,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>3930676</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2412,6 +2448,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>3945720</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2621,6 +2662,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>3917452</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2822,6 +2868,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>3727375</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3031,6 +3082,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>16137894</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3244,6 +3300,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3461,6 +3518,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>3684747</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3666,6 +3728,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>3552825</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3883,6 +3950,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>3006030</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4096,6 +4168,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>2625908</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4313,6 +4390,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>2554654</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4530,6 +4612,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>2616709</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4747,6 +4834,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4956,6 +5044,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>2749460</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5165,6 +5258,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>2751922</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
